--- a/biology/Histoire de la zoologie et de la botanique/Jörg_Wunderlich/Jörg_Wunderlich.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jörg_Wunderlich/Jörg_Wunderlich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%B6rg_Wunderlich</t>
+          <t>Jörg_Wunderlich</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jörg Wunderlich est un arachnologiste allemand, né à Berlin, le 19 décembre 1939. Spécialiste des araignées, il a particulièrement étudié les araignées fossiles prises dans l'ambre et le copal.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C3%B6rg_Wunderlich</t>
+          <t>Jörg_Wunderlich</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Eusimonia wunderlichi Pieper 1977
 Nasoona wunderlichi Brignoli, 1983
@@ -548,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J%C3%B6rg_Wunderlich</t>
+          <t>Jörg_Wunderlich</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -566,7 +580,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acartauchenius orientalis
@@ -629,7 +645,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>J%C3%B6rg_Wunderlich</t>
+          <t>Jörg_Wunderlich</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -647,7 +663,9 @@
           <t>Mycologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Jörg Wunderlich est le coauteur de la description d'au moins un taxon placé parmi les Fungi fossiles, Metacapnodium succinum (Dörfelt, A.R.Schmidt &amp; J.Wund.) Rikkinen, Dörfelt, A.R.Schmidt &amp; J.Wund. . Néanmoins ce nom est synonyme de Rosaria succina Dörfelt, A.R.Schmidt &amp; J.Wund. et le taxon est placé parmi les cyanobactéries.
 </t>
